--- a/2024/shuffle-architecute/Teste10/content/results/metrics_4_5.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_4_5.xlsx
@@ -488,445 +488,445 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_0</t>
+          <t>model_4_5_4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9980436678744027</v>
+        <v>0.9687527526136065</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7384293154018817</v>
+        <v>0.78178155157759</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9539875469736542</v>
+        <v>0.6949287560959094</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8518941779780422</v>
+        <v>0.9295171038633152</v>
       </c>
       <c r="F2" t="n">
-        <v>0.969610554498493</v>
+        <v>0.8734642276890757</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008210307918488979</v>
+        <v>0.1311379969120026</v>
       </c>
       <c r="H2" t="n">
-        <v>1.74912440776825</v>
+        <v>1.459227800369263</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01165281049907207</v>
+        <v>0.28724005818367</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03135091066360474</v>
+        <v>0.1906469613313675</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02150176279246807</v>
+        <v>0.2389435470104218</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_1</t>
+          <t>model_4_5_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9979557172670466</v>
+        <v>0.9679353037214542</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7382904801552927</v>
+        <v>0.7817032328095903</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9501686655455961</v>
+        <v>0.7403216959398191</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8380946426396833</v>
+        <v>0.935425111259389</v>
       </c>
       <c r="F3" t="n">
-        <v>0.966862707527792</v>
+        <v>0.8890122003717682</v>
       </c>
       <c r="G3" t="n">
-        <v>0.008579417131841183</v>
+        <v>0.1345686465501785</v>
       </c>
       <c r="H3" t="n">
-        <v>1.750052809715271</v>
+        <v>1.45975136756897</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01261995360255241</v>
+        <v>0.2445003092288971</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03427198156714439</v>
+        <v>0.1746665686368942</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02344597689807415</v>
+        <v>0.2095835655927658</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_2</t>
+          <t>model_4_5_5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9978650429016597</v>
+        <v>0.9691383232984477</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7381598797472296</v>
+        <v>0.7816541634166357</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9466342621193663</v>
+        <v>0.6524590782880733</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8250397144732735</v>
+        <v>0.9240520994424336</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9642773455353125</v>
+        <v>0.8589623509850317</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008959958329796791</v>
+        <v>0.1295198649168015</v>
       </c>
       <c r="H4" t="n">
-        <v>1.75092601776123</v>
+        <v>1.460079669952393</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01351505424827337</v>
+        <v>0.3272274434566498</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03703543916344643</v>
+        <v>0.2054290622472763</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0252752248197794</v>
+        <v>0.2663281261920929</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_3</t>
+          <t>model_4_5_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9977740881734719</v>
+        <v>0.9692119799013167</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7380377903750943</v>
+        <v>0.7813859712961685</v>
       </c>
       <c r="D5" t="n">
-        <v>0.943376977230643</v>
+        <v>0.6132081900026221</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8127691895302547</v>
+        <v>0.9190062871062968</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9618588113084896</v>
+        <v>0.8455630237369569</v>
       </c>
       <c r="G5" t="n">
-        <v>0.009341674856841564</v>
+        <v>0.1292107254266739</v>
       </c>
       <c r="H5" t="n">
-        <v>1.751742482185364</v>
+        <v>1.461873054504395</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01433997321873903</v>
+        <v>0.3641841411590576</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03963284939527512</v>
+        <v>0.2190773338079453</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02698643505573273</v>
+        <v>0.2916307151317596</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_4</t>
+          <t>model_4_5_2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9976846398283752</v>
+        <v>0.9665224929860902</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7379241909201117</v>
+        <v>0.7813288674486389</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9403852963746288</v>
+        <v>0.7878848431488793</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8012998425587797</v>
+        <v>0.9417995898216007</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9596075633812565</v>
+        <v>0.9054354405000894</v>
       </c>
       <c r="G6" t="n">
-        <v>0.009717071428894997</v>
+        <v>0.1404979228973389</v>
       </c>
       <c r="H6" t="n">
-        <v>1.752502202987671</v>
+        <v>1.462254881858826</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01509762648493052</v>
+        <v>0.1997171938419342</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04206067323684692</v>
+        <v>0.1574244350194931</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02857928350567818</v>
+        <v>0.1785707771778107</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_5</t>
+          <t>model_4_5_7</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9975979827378514</v>
+        <v>0.9690625283009493</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7378189392163927</v>
+        <v>0.7810240766786256</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9376451949681424</v>
+        <v>0.5772106764483611</v>
       </c>
       <c r="E7" t="n">
-        <v>0.790629605051227</v>
+        <v>0.9143562574985233</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9575212035963069</v>
+        <v>0.8332582637493227</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01008075196295977</v>
+        <v>0.1298379451036453</v>
       </c>
       <c r="H7" t="n">
-        <v>1.753206014633179</v>
+        <v>1.464293003082275</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01579156517982483</v>
+        <v>0.3980776071548462</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04431933909654617</v>
+        <v>0.2316550314426422</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03005546703934669</v>
+        <v>0.3148663938045502</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_6</t>
+          <t>model_4_5_8</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9975149866946618</v>
+        <v>0.9687566070052056</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7377217671339389</v>
+        <v>0.7806029780091439</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9351420650950715</v>
+        <v>0.5443649382476717</v>
       </c>
       <c r="E8" t="n">
-        <v>0.780740185706746</v>
+        <v>0.9100787525992611</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9555939576108633</v>
+        <v>0.8220062147065516</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0104290684685111</v>
+        <v>0.1311218291521072</v>
       </c>
       <c r="H8" t="n">
-        <v>1.75385570526123</v>
+        <v>1.467108964920044</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0164254903793335</v>
+        <v>0.4290035665035248</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04641272127628326</v>
+        <v>0.2432251274585724</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03141907230019569</v>
+        <v>0.3361141681671143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_7</t>
+          <t>model_4_5_1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9974362378422843</v>
+        <v>0.9642887603029237</v>
       </c>
       <c r="C9" t="n">
-        <v>0.737632356450413</v>
+        <v>0.7805302557489741</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9328589661970987</v>
+        <v>0.8360864547991638</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7716087352826014</v>
+        <v>0.9486635245561199</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9538193288342589</v>
+        <v>0.9223683136892371</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0107595594599843</v>
+        <v>0.1498724222183228</v>
       </c>
       <c r="H9" t="n">
-        <v>1.754453659057617</v>
+        <v>1.467595219612122</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01700369454920292</v>
+        <v>0.1543329358100891</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0483456589281559</v>
+        <v>0.1388583928346634</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03267469257116318</v>
+        <v>0.1465956270694733</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_8</t>
+          <t>model_4_5_9</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9973620796749544</v>
+        <v>0.9683440862058477</v>
       </c>
       <c r="C10" t="n">
-        <v>0.737550268441431</v>
+        <v>0.7801480417423921</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9307804636250335</v>
+        <v>0.5144938081308806</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7632015040278235</v>
+        <v>0.9061508483296856</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9521897468778846</v>
+        <v>0.8117458877405436</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01107078697532415</v>
+        <v>0.132853090763092</v>
       </c>
       <c r="H10" t="n">
-        <v>1.755002617835999</v>
+        <v>1.47015106678009</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01753008365631104</v>
+        <v>0.4571287333965302</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05012529343366623</v>
+        <v>0.253849595785141</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03382768854498863</v>
+        <v>0.3554892539978027</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_9</t>
+          <t>model_4_5_10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9972926569725593</v>
+        <v>0.9678626895229768</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7374750918117707</v>
+        <v>0.7796778179224617</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9288905279047738</v>
+        <v>0.4873918796511094</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7554797126577303</v>
+        <v>0.9025493755458596</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9506965052991778</v>
+        <v>0.8024100084361743</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01136213913559914</v>
+        <v>0.1348734050989151</v>
       </c>
       <c r="H11" t="n">
-        <v>1.755505204200745</v>
+        <v>1.473295450210571</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01800871454179287</v>
+        <v>0.4826465845108032</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05175983533263206</v>
+        <v>0.2635911107063293</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03488421812653542</v>
+        <v>0.3731186091899872</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_10</t>
+          <t>model_4_5_11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9972280267159493</v>
+        <v>0.9673406112537544</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7374063752843973</v>
+        <v>0.7792058208368549</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9271751071022245</v>
+        <v>0.4628406372689073</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7484055745678129</v>
+        <v>0.8992523643799424</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9493312890848505</v>
+        <v>0.7939278286867683</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01163337845355272</v>
+        <v>0.1370644718408585</v>
       </c>
       <c r="H12" t="n">
-        <v>1.755964875221252</v>
+        <v>1.476451635360718</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01844315230846405</v>
+        <v>0.5057628154754639</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0532572828233242</v>
+        <v>0.2725090682506561</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0358501635491848</v>
+        <v>0.3891359269618988</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_11</t>
+          <t>model_4_5_0</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9971681014385188</v>
+        <v>0.9609194949569783</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7373436933441286</v>
+        <v>0.7791220576923448</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9256192087796054</v>
+        <v>0.8821160674251637</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7419361412166641</v>
+        <v>0.9560299912188961</v>
       </c>
       <c r="F13" t="n">
-        <v>0.948085047749207</v>
+        <v>0.9391196130396954</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01188487187027931</v>
+        <v>0.1640125066041946</v>
       </c>
       <c r="H13" t="n">
-        <v>1.756383895874023</v>
+        <v>1.477011919021606</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01883718930184841</v>
+        <v>0.1109937056899071</v>
       </c>
       <c r="J13" t="n">
-        <v>0.05462672933936119</v>
+        <v>0.1189330816268921</v>
       </c>
       <c r="K13" t="n">
-        <v>0.03673192858695984</v>
+        <v>0.1149633452296257</v>
       </c>
     </row>
     <row r="14">
@@ -936,34 +936,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9971127386783548</v>
+        <v>0.9667989106942959</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7372865435249877</v>
+        <v>0.7787417419309012</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9242087603172565</v>
+        <v>0.4406228678907786</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7360301743050746</v>
+        <v>0.8962381399976986</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9469491459083303</v>
+        <v>0.786230005527358</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01211721822619438</v>
+        <v>0.1393378674983978</v>
       </c>
       <c r="H14" t="n">
-        <v>1.756766200065613</v>
+        <v>1.479555130004883</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01919438876211643</v>
+        <v>0.5266819596290588</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05587689951062202</v>
+        <v>0.2806621491909027</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03753562644124031</v>
+        <v>0.403672069311142</v>
       </c>
     </row>
     <row r="15">
@@ -973,34 +973,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9970617646049447</v>
+        <v>0.9662532896815164</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7372345908365674</v>
+        <v>0.7782924155705895</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9229317631681613</v>
+        <v>0.4205358490308825</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7306477414169761</v>
+        <v>0.8934860385768399</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9459154516971928</v>
+        <v>0.7792511088895646</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01233114488422871</v>
+        <v>0.1416277140378952</v>
       </c>
       <c r="H15" t="n">
-        <v>1.757113456726074</v>
+        <v>1.482559680938721</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01951779052615166</v>
+        <v>0.5455949306488037</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05701624602079391</v>
+        <v>0.288106232881546</v>
       </c>
       <c r="K15" t="n">
-        <v>0.03826700523495674</v>
+        <v>0.4168506860733032</v>
       </c>
     </row>
     <row r="16">
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9970149549938346</v>
+        <v>0.9657150482554661</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7371873780862122</v>
+        <v>0.7778624367627116</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9217762918742993</v>
+        <v>0.4023845529462644</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7257489153609333</v>
+        <v>0.8909758236956923</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9449758544346758</v>
+        <v>0.7729281224601166</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0125275943428278</v>
+        <v>0.143886610865593</v>
       </c>
       <c r="H16" t="n">
-        <v>1.757429361343384</v>
+        <v>1.485435009002686</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01981041952967644</v>
+        <v>0.5626853108406067</v>
       </c>
       <c r="J16" t="n">
-        <v>0.05805322527885437</v>
+        <v>0.2948960363864899</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03893180936574936</v>
+        <v>0.4287906885147095</v>
       </c>
     </row>
     <row r="17">
@@ -1047,34 +1047,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9969720599182904</v>
+        <v>0.9651924539812613</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7371445030801601</v>
+        <v>0.777454760960584</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9207309946573176</v>
+        <v>0.3859919368748527</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7212946634575889</v>
+        <v>0.8886893510888261</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9441224013523322</v>
+        <v>0.7672038367659398</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01270761620253325</v>
+        <v>0.1460798233747482</v>
       </c>
       <c r="H17" t="n">
-        <v>1.757715940475464</v>
+        <v>1.488161087036133</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02007514424622059</v>
+        <v>0.5781197547912598</v>
       </c>
       <c r="J17" t="n">
-        <v>0.05899609625339508</v>
+        <v>0.3010806441307068</v>
       </c>
       <c r="K17" t="n">
-        <v>0.03953566402196884</v>
+        <v>0.4396001398563385</v>
       </c>
     </row>
     <row r="18">
@@ -1084,34 +1084,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9969328482736537</v>
+        <v>0.9646909728637999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7371056277122314</v>
+        <v>0.7770711388223346</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9197866590859557</v>
+        <v>0.3711918458548749</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7172501574818348</v>
+        <v>0.8866079864466649</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9433484507805698</v>
+        <v>0.7620233364894224</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01287217997014523</v>
+        <v>0.1481844484806061</v>
       </c>
       <c r="H18" t="n">
-        <v>1.757975816726685</v>
+        <v>1.490726232528687</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02031430043280125</v>
+        <v>0.5920547842979431</v>
       </c>
       <c r="J18" t="n">
-        <v>0.059852235019207</v>
+        <v>0.3067104518413544</v>
       </c>
       <c r="K18" t="n">
-        <v>0.04008326679468155</v>
+        <v>0.4493826925754547</v>
       </c>
     </row>
     <row r="19">
@@ -1121,34 +1121,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9968970522301953</v>
+        <v>0.9642144874670818</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7370703939466685</v>
+        <v>0.7767123005182321</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9189335850093001</v>
+        <v>0.3578350284079314</v>
       </c>
       <c r="E19" t="n">
-        <v>0.713579632624445</v>
+        <v>0.8847157417668874</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9426467713555888</v>
+        <v>0.75733819177325</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01302240882068872</v>
+        <v>0.1501841396093369</v>
       </c>
       <c r="H19" t="n">
-        <v>1.758211612701416</v>
+        <v>1.493125915527344</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02053034491837025</v>
+        <v>0.6046309471130371</v>
       </c>
       <c r="J19" t="n">
-        <v>0.06062921136617661</v>
+        <v>0.3118287324905396</v>
       </c>
       <c r="K19" t="n">
-        <v>0.04057972878217697</v>
+        <v>0.4582298994064331</v>
       </c>
     </row>
     <row r="20">
@@ -1158,34 +1158,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9968644354128973</v>
+        <v>0.9637651075474284</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7370384622890667</v>
+        <v>0.7763784047334694</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9181627686904569</v>
+        <v>0.3457828359845077</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7102531946382448</v>
+        <v>0.8829965495322799</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9420112526508699</v>
+        <v>0.753102424645309</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01315929275006056</v>
+        <v>0.152070090174675</v>
       </c>
       <c r="H20" t="n">
-        <v>1.758424997329712</v>
+        <v>1.49535858631134</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02072555758059025</v>
+        <v>0.6159786581993103</v>
       </c>
       <c r="J20" t="n">
-        <v>0.06133334711194038</v>
+        <v>0.3164789080619812</v>
       </c>
       <c r="K20" t="n">
-        <v>0.04102938622236252</v>
+        <v>0.4662284851074219</v>
       </c>
     </row>
     <row r="21">
@@ -1195,34 +1195,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9968347506026184</v>
+        <v>0.9633439873414497</v>
       </c>
       <c r="C21" t="n">
-        <v>0.737009590828968</v>
+        <v>0.7760689819106201</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9174671076257881</v>
+        <v>0.334910784969434</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7072395716229669</v>
+        <v>0.8814360235083052</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9414357723110909</v>
+        <v>0.7492741506317031</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01328387390822172</v>
+        <v>0.1538374423980713</v>
       </c>
       <c r="H21" t="n">
-        <v>1.758617997169495</v>
+        <v>1.497427821159363</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02090173400938511</v>
+        <v>0.6262152791023254</v>
       </c>
       <c r="J21" t="n">
-        <v>0.061971265822649</v>
+        <v>0.32069993019104</v>
       </c>
       <c r="K21" t="n">
-        <v>0.04143656045198441</v>
+        <v>0.4734576046466827</v>
       </c>
     </row>
     <row r="22">
@@ -1232,34 +1232,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9968077745427524</v>
+        <v>0.9629514727942756</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7369834583811541</v>
+        <v>0.7757833256543124</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9168399856522715</v>
+        <v>0.3251063264255603</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7045114164772655</v>
+        <v>0.8800204483337031</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9409155747338206</v>
+        <v>0.7458160383214731</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01339708641171455</v>
+        <v>0.1554847359657288</v>
       </c>
       <c r="H22" t="n">
-        <v>1.758792877197266</v>
+        <v>1.499337911605835</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02106055431067944</v>
+        <v>0.6354466676712036</v>
       </c>
       <c r="J22" t="n">
-        <v>0.06254875659942627</v>
+        <v>0.3245289027690887</v>
       </c>
       <c r="K22" t="n">
-        <v>0.04180461913347244</v>
+        <v>0.4799877107143402</v>
       </c>
     </row>
     <row r="23">
@@ -1269,34 +1269,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9967832758729227</v>
+        <v>0.9625871926055771</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7369598468934837</v>
+        <v>0.7755203757445193</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9162735436342723</v>
+        <v>0.3162655935644889</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7020434271309423</v>
+        <v>0.8787371835508289</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9404449220825325</v>
+        <v>0.7426928245914939</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01349990256130695</v>
+        <v>0.1570135354995728</v>
       </c>
       <c r="H23" t="n">
-        <v>1.758950710296631</v>
+        <v>1.501096248626709</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02120400778949261</v>
+        <v>0.643770694732666</v>
       </c>
       <c r="J23" t="n">
-        <v>0.06307118386030197</v>
+        <v>0.3279999494552612</v>
       </c>
       <c r="K23" t="n">
-        <v>0.04213763028383255</v>
+        <v>0.4858854413032532</v>
       </c>
     </row>
     <row r="24">
@@ -1306,34 +1306,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9967610627287952</v>
+        <v>0.9622504383257228</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7369385321362801</v>
+        <v>0.7752789806543723</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9157622838083117</v>
+        <v>0.3082945585421282</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6998135311616189</v>
+        <v>0.8775750281905793</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9400198050865272</v>
+        <v>0.7398733552754196</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01359312608838081</v>
+        <v>0.1584268361330032</v>
       </c>
       <c r="H24" t="n">
-        <v>1.759093284606934</v>
+        <v>1.502710461616516</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02133348770439625</v>
+        <v>0.6512758135795593</v>
       </c>
       <c r="J24" t="n">
-        <v>0.06354320049285889</v>
+        <v>0.3311434388160706</v>
       </c>
       <c r="K24" t="n">
-        <v>0.04243841767311096</v>
+        <v>0.4912095665931702</v>
       </c>
     </row>
     <row r="25">
@@ -1343,34 +1343,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9967409146718208</v>
+        <v>0.9619400782469641</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7369192533373936</v>
+        <v>0.7750578766919687</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9153019991901629</v>
+        <v>0.3011091526388201</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6977954527925904</v>
+        <v>0.8765226693819732</v>
       </c>
       <c r="F25" t="n">
-        <v>0.939635576489812</v>
+        <v>0.7373282750718778</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0136776827275753</v>
+        <v>0.1597293317317963</v>
       </c>
       <c r="H25" t="n">
-        <v>1.759222149848938</v>
+        <v>1.504189014434814</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02145005576312542</v>
+        <v>0.65804123878479</v>
       </c>
       <c r="J25" t="n">
-        <v>0.06397038698196411</v>
+        <v>0.3339899182319641</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04271027073264122</v>
+        <v>0.4960155487060547</v>
       </c>
     </row>
     <row r="26">
@@ -1380,34 +1380,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9967226737391152</v>
+        <v>0.9616548650598891</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7369018520884897</v>
+        <v>0.774855764325284</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9148865526025514</v>
+        <v>0.2946329447551398</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6959737763332291</v>
+        <v>0.8755706518036825</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9392888531604454</v>
+        <v>0.735031822802958</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01375423744320869</v>
+        <v>0.1609263271093369</v>
       </c>
       <c r="H26" t="n">
-        <v>1.75933849811554</v>
+        <v>1.505540609359741</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02155526913702488</v>
+        <v>0.6641389131546021</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0643559992313385</v>
+        <v>0.3365650177001953</v>
       </c>
       <c r="K26" t="n">
-        <v>0.04295559227466583</v>
+        <v>0.5003520250320435</v>
       </c>
     </row>
   </sheetData>
